--- a/Thuoc.xlsx
+++ b/Thuoc.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>Mã thuốc</t>
   </si>
@@ -223,7 +223,7 @@
         <v>12</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>20000.0</v>
+        <v>15000.0</v>
       </c>
       <c r="G3" t="n" s="0">
         <v>40000.0</v>
@@ -242,7 +242,9 @@
       <c r="B4" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="C4" s="0"/>
+      <c r="C4" t="s" s="0">
+        <v>10</v>
+      </c>
       <c r="D4" t="s" s="0">
         <v>19</v>
       </c>
@@ -250,10 +252,10 @@
         <v>20</v>
       </c>
       <c r="F4" t="n" s="0">
-        <v>50000.0</v>
+        <v>20000.0</v>
       </c>
       <c r="G4" t="n" s="0">
-        <v>70000.0</v>
+        <v>60000.0</v>
       </c>
       <c r="H4" t="s" s="0">
         <v>21</v>
@@ -269,7 +271,9 @@
       <c r="B5" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="C5" s="0"/>
+      <c r="C5" t="s" s="0">
+        <v>10</v>
+      </c>
       <c r="D5" t="s" s="0">
         <v>23</v>
       </c>
@@ -277,10 +281,10 @@
         <v>24</v>
       </c>
       <c r="F5" t="n" s="0">
-        <v>100000.0</v>
+        <v>30000.0</v>
       </c>
       <c r="G5" t="n" s="0">
-        <v>120000.0</v>
+        <v>80000.0</v>
       </c>
       <c r="H5" t="s" s="0">
         <v>21</v>

--- a/Thuoc.xlsx
+++ b/Thuoc.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
   <si>
     <t>Mã thuốc</t>
   </si>
@@ -41,52 +41,61 @@
     <t>Trạng thái</t>
   </si>
   <si>
+    <t>Paradol</t>
+  </si>
+  <si>
+    <t>Thuốc trị nhức đầu</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>Viên</t>
+  </si>
+  <si>
+    <t>1 viên 1 lần</t>
+  </si>
+  <si>
+    <t>Đang kinh doanh</t>
+  </si>
+  <si>
     <t>Paracetamol</t>
   </si>
   <si>
-    <t>Thuốc trị nhức đầu</t>
-  </si>
-  <si>
-    <t>Việt Nam</t>
-  </si>
-  <si>
-    <t>Viên</t>
-  </si>
-  <si>
-    <t>Đường uống</t>
-  </si>
-  <si>
-    <t>Đang kinh doanh</t>
-  </si>
-  <si>
-    <t>Paradol</t>
-  </si>
-  <si>
-    <t>Trung quốc</t>
-  </si>
-  <si>
-    <t>Ngừng kinh doanh</t>
-  </si>
-  <si>
-    <t>Viên đường họng</t>
-  </si>
-  <si>
-    <t>Mỹ</t>
-  </si>
-  <si>
-    <t>Tai mũi họng</t>
+    <t>Bhutan</t>
   </si>
   <si>
     <t>Uống</t>
   </si>
   <si>
-    <t>Covid</t>
-  </si>
-  <si>
-    <t>Châu âu</t>
-  </si>
-  <si>
-    <t>Phổi</t>
+    <t>Cerciorat</t>
+  </si>
+  <si>
+    <t>Thuốc dạ dày</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>Daflavon</t>
+  </si>
+  <si>
+    <t>Esonix</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Tazoretin</t>
+  </si>
+  <si>
+    <t>Aleucin</t>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t>Hộp</t>
   </si>
 </sst>
 </file>
@@ -131,7 +140,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" zoomScale="150"/>
   </sheetViews>
@@ -194,10 +203,10 @@
         <v>12</v>
       </c>
       <c r="F2" t="n" s="0">
-        <v>10000.0</v>
+        <v>2000.0</v>
       </c>
       <c r="G2" t="n" s="0">
-        <v>20000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="H2" t="s" s="0">
         <v>13</v>
@@ -223,73 +232,160 @@
         <v>12</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>15000.0</v>
+        <v>8000.0</v>
       </c>
       <c r="G3" t="n" s="0">
-        <v>40000.0</v>
+        <v>16000.0</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n" s="0">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="B4" t="s" s="0">
         <v>18</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F4" t="n" s="0">
+        <v>10000.0</v>
+      </c>
+      <c r="G4" t="n" s="0">
         <v>20000.0</v>
       </c>
-      <c r="G4" t="n" s="0">
-        <v>60000.0</v>
-      </c>
       <c r="H4" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I4" t="s" s="0">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n" s="0">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="B5" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F5" t="n" s="0">
+        <v>20000.0</v>
+      </c>
+      <c r="G5" t="n" s="0">
+        <v>50000.0</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="B6" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="C5" t="s" s="0">
+      <c r="C6" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F6" t="n" s="0">
+        <v>20000.0</v>
+      </c>
+      <c r="G6" t="n" s="0">
+        <v>50000.0</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F7" t="n" s="0">
+        <v>20000.0</v>
+      </c>
+      <c r="G7" t="n" s="0">
+        <v>50000.0</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="D5" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="F5" t="n" s="0">
+      <c r="D8" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="F8" t="n" s="0">
         <v>30000.0</v>
       </c>
-      <c r="G5" t="n" s="0">
-        <v>80000.0</v>
-      </c>
-      <c r="H5" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="I5" t="s" s="0">
+      <c r="G8" t="n" s="0">
+        <v>36000.0</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s" s="0">
         <v>14</v>
       </c>
     </row>
